--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H2">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N2">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O2">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P2">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q2">
-        <v>68.4118786888551</v>
+        <v>59.45092105498166</v>
       </c>
       <c r="R2">
-        <v>68.4118786888551</v>
+        <v>535.058289494835</v>
       </c>
       <c r="S2">
-        <v>0.01228818674880962</v>
+        <v>0.006567784250991196</v>
       </c>
       <c r="T2">
-        <v>0.01228818674880962</v>
+        <v>0.006567784250991198</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H3">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N3">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P3">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q3">
-        <v>2.534172797378814</v>
+        <v>0.1932430988976666</v>
       </c>
       <c r="R3">
-        <v>2.534172797378814</v>
+        <v>1.739187890079</v>
       </c>
       <c r="S3">
-        <v>0.0004551897884514198</v>
+        <v>2.13483485037862E-05</v>
       </c>
       <c r="T3">
-        <v>0.0004551897884514198</v>
+        <v>2.134834850378621E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>92.59680555783819</v>
+        <v>2.512729</v>
       </c>
       <c r="H4">
-        <v>92.59680555783819</v>
+        <v>7.538187</v>
       </c>
       <c r="I4">
-        <v>0.8333283798285455</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J4">
-        <v>0.8333283798285455</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N4">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P4">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q4">
-        <v>4473.662051977927</v>
+        <v>133.7136785135723</v>
       </c>
       <c r="R4">
-        <v>4473.662051977927</v>
+        <v>1203.423106622151</v>
       </c>
       <c r="S4">
-        <v>0.8035621269193892</v>
+        <v>0.01477189211368747</v>
       </c>
       <c r="T4">
-        <v>0.8035621269193892</v>
+        <v>0.01477189211368748</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,57 +717,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>92.59680555783819</v>
+        <v>2.512729</v>
       </c>
       <c r="H5">
-        <v>92.59680555783819</v>
+        <v>7.538187</v>
       </c>
       <c r="I5">
-        <v>0.8333283798285455</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J5">
-        <v>0.8333283798285455</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.78966554476239</v>
+        <v>1.967779333333333</v>
       </c>
       <c r="N5">
-        <v>1.78966554476239</v>
+        <v>5.903338</v>
       </c>
       <c r="O5">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536815</v>
       </c>
       <c r="P5">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536816</v>
       </c>
       <c r="Q5">
-        <v>165.7173124619256</v>
+        <v>4.944496196467333</v>
       </c>
       <c r="R5">
-        <v>165.7173124619256</v>
+        <v>44.500465768206</v>
       </c>
       <c r="S5">
-        <v>0.02976625290915625</v>
+        <v>0.0005462385388144099</v>
       </c>
       <c r="T5">
-        <v>0.02976625290915625</v>
+        <v>0.0005462385388144101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -776,60 +776,60 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.30794607477179</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H6">
-        <v>1.30794607477179</v>
+        <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J6">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>48.313351902659</v>
+        <v>23.65990166666667</v>
       </c>
       <c r="N6">
-        <v>48.313351902659</v>
+        <v>70.979705</v>
       </c>
       <c r="O6">
-        <v>0.9642802841836725</v>
+        <v>0.2997993941754699</v>
       </c>
       <c r="P6">
-        <v>0.9642802841836725</v>
+        <v>0.29979939417547</v>
       </c>
       <c r="Q6">
-        <v>63.19125898015103</v>
+        <v>2197.862779237191</v>
       </c>
       <c r="R6">
-        <v>63.19125898015103</v>
+        <v>19780.76501313472</v>
       </c>
       <c r="S6">
-        <v>0.01135045559517705</v>
+        <v>0.2428068109149031</v>
       </c>
       <c r="T6">
-        <v>0.01135045559517705</v>
+        <v>0.2428068109149032</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.30794607477179</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H7">
-        <v>1.30794607477179</v>
+        <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J7">
-        <v>0.01177090912398563</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.78966554476239</v>
+        <v>0.07690566666666666</v>
       </c>
       <c r="N7">
-        <v>1.78966554476239</v>
+        <v>0.230717</v>
       </c>
       <c r="O7">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636476</v>
       </c>
       <c r="P7">
-        <v>0.03571971581632748</v>
+        <v>0.0009744872400636479</v>
       </c>
       <c r="Q7">
-        <v>2.340786024426285</v>
+        <v>7.144074589169778</v>
       </c>
       <c r="R7">
-        <v>2.340786024426285</v>
+        <v>64.296671302528</v>
       </c>
       <c r="S7">
-        <v>0.0004204535288085831</v>
+        <v>0.0007892348805035706</v>
       </c>
       <c r="T7">
-        <v>0.0004204535288085831</v>
+        <v>0.000789234880503571</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -903,57 +903,57 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.7960719698165</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H8">
-        <v>15.7960719698165</v>
+        <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.1421573345102079</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J8">
-        <v>0.1421573345102079</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.313351902659</v>
+        <v>53.21452433333334</v>
       </c>
       <c r="N8">
-        <v>48.313351902659</v>
+        <v>159.643573</v>
       </c>
       <c r="O8">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890982</v>
       </c>
       <c r="P8">
-        <v>0.9642802841836725</v>
+        <v>0.6742919890890983</v>
       </c>
       <c r="Q8">
-        <v>763.1611837574725</v>
+        <v>4943.309739609871</v>
       </c>
       <c r="R8">
-        <v>763.1611837574725</v>
+        <v>44489.78765648884</v>
       </c>
       <c r="S8">
-        <v>0.1370795149202967</v>
+        <v>0.5461074661157092</v>
       </c>
       <c r="T8">
-        <v>0.1370795149202967</v>
+        <v>0.5461074661157093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,52 +965,548 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.7960719698165</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H9">
-        <v>15.7960719698165</v>
+        <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.1421573345102079</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J9">
-        <v>0.1421573345102079</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.78966554476239</v>
+        <v>1.967779333333333</v>
       </c>
       <c r="N9">
-        <v>1.78966554476239</v>
+        <v>5.903338</v>
       </c>
       <c r="O9">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536815</v>
       </c>
       <c r="P9">
-        <v>0.03571971581632748</v>
+        <v>0.02493412949536816</v>
       </c>
       <c r="Q9">
-        <v>28.26968574696756</v>
+        <v>182.7948828958436</v>
       </c>
       <c r="R9">
-        <v>28.26968574696756</v>
+        <v>1645.153946062592</v>
       </c>
       <c r="S9">
-        <v>0.005077819589911231</v>
+        <v>0.02019409172710371</v>
       </c>
       <c r="T9">
-        <v>0.005077819589911231</v>
+        <v>0.02019409172710372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.610639333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.831918</v>
+      </c>
+      <c r="I10">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="J10">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N10">
+        <v>70.979705</v>
+      </c>
+      <c r="O10">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P10">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q10">
+        <v>38.10756824713222</v>
+      </c>
+      <c r="R10">
+        <v>342.9681142241899</v>
+      </c>
+      <c r="S10">
+        <v>0.004209897544659065</v>
+      </c>
+      <c r="T10">
+        <v>0.004209897544659066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.610639333333333</v>
+      </c>
+      <c r="H11">
+        <v>4.831918</v>
+      </c>
+      <c r="I11">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="J11">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.230717</v>
+      </c>
+      <c r="O11">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P11">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q11">
+        <v>0.1238672916895556</v>
+      </c>
+      <c r="R11">
+        <v>1.114805625206</v>
+      </c>
+      <c r="S11">
+        <v>1.36841218459714E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.368412184597141E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.610639333333333</v>
+      </c>
+      <c r="H12">
+        <v>4.831918</v>
+      </c>
+      <c r="I12">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="J12">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N12">
+        <v>159.643573</v>
+      </c>
+      <c r="O12">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P12">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q12">
+        <v>85.70940599589045</v>
+      </c>
+      <c r="R12">
+        <v>771.384653963014</v>
+      </c>
+      <c r="S12">
+        <v>0.009468665529017064</v>
+      </c>
+      <c r="T12">
+        <v>0.009468665529017067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.610639333333333</v>
+      </c>
+      <c r="H13">
+        <v>4.831918</v>
+      </c>
+      <c r="I13">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="J13">
+        <v>0.0140423817607685</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N13">
+        <v>5.903338</v>
+      </c>
+      <c r="O13">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P13">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q13">
+        <v>3.169382793587111</v>
+      </c>
+      <c r="R13">
+        <v>28.524445142284</v>
+      </c>
+      <c r="S13">
+        <v>0.0003501345652463976</v>
+      </c>
+      <c r="T13">
+        <v>0.0003501345652463977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H14">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I14">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J14">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>23.65990166666667</v>
+      </c>
+      <c r="N14">
+        <v>70.979705</v>
+      </c>
+      <c r="O14">
+        <v>0.2997993941754699</v>
+      </c>
+      <c r="P14">
+        <v>0.29979939417547</v>
+      </c>
+      <c r="Q14">
+        <v>418.3326299337345</v>
+      </c>
+      <c r="R14">
+        <v>3764.99366940361</v>
+      </c>
+      <c r="S14">
+        <v>0.04621490146491655</v>
+      </c>
+      <c r="T14">
+        <v>0.04621490146491655</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H15">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I15">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J15">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.07690566666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.230717</v>
+      </c>
+      <c r="O15">
+        <v>0.0009744872400636476</v>
+      </c>
+      <c r="P15">
+        <v>0.0009744872400636479</v>
+      </c>
+      <c r="Q15">
+        <v>1.359775296057111</v>
+      </c>
+      <c r="R15">
+        <v>12.237977664514</v>
+      </c>
+      <c r="S15">
+        <v>0.0001502198892103193</v>
+      </c>
+      <c r="T15">
+        <v>0.0001502198892103194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H16">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I16">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J16">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.21452433333334</v>
+      </c>
+      <c r="N16">
+        <v>159.643573</v>
+      </c>
+      <c r="O16">
+        <v>0.6742919890890982</v>
+      </c>
+      <c r="P16">
+        <v>0.6742919890890983</v>
+      </c>
+      <c r="Q16">
+        <v>940.8902973759631</v>
+      </c>
+      <c r="R16">
+        <v>8468.012676383667</v>
+      </c>
+      <c r="S16">
+        <v>0.1039439653306845</v>
+      </c>
+      <c r="T16">
+        <v>0.1039439653306845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.68108066666667</v>
+      </c>
+      <c r="H17">
+        <v>53.04324200000001</v>
+      </c>
+      <c r="I17">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="J17">
+        <v>0.154152751349015</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.967779333333333</v>
+      </c>
+      <c r="N17">
+        <v>5.903338</v>
+      </c>
+      <c r="O17">
+        <v>0.02493412949536815</v>
+      </c>
+      <c r="P17">
+        <v>0.02493412949536816</v>
+      </c>
+      <c r="Q17">
+        <v>34.79246512686623</v>
+      </c>
+      <c r="R17">
+        <v>313.132186141796</v>
+      </c>
+      <c r="S17">
+        <v>0.003843664664203627</v>
+      </c>
+      <c r="T17">
+        <v>0.003843664664203628</v>
       </c>
     </row>
   </sheetData>
